--- a/database_old/Trace_Report_SBM_initial.xlsx
+++ b/database_old/Trace_Report_SBM_initial.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB04A816-09C6-4491-B7ED-818BC542DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED324FA1-0531-4280-8E01-FD5A765AB406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$2:$N$10</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Initial</t>
   </si>
@@ -68,6 +65,12 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Not authorized to view shipment</t>
+  </si>
+  <si>
     <t>CRDX</t>
   </si>
   <si>
@@ -86,43 +89,31 @@
     <t>LOVELAND</t>
   </si>
   <si>
-    <t>CGAX</t>
-  </si>
-  <si>
-    <t>CGOX</t>
-  </si>
-  <si>
-    <t>MWCX</t>
-  </si>
-  <si>
-    <t>DODGE CITY</t>
+    <t>BNSF</t>
+  </si>
+  <si>
+    <t>HOLCOMB</t>
   </si>
   <si>
     <t>KS</t>
   </si>
   <si>
-    <t>LKAN01</t>
-  </si>
-  <si>
-    <t>LINCOLN</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>HGALLI</t>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
   </si>
   <si>
     <t>HRTX</t>
   </si>
   <si>
-    <t>LONGMONT</t>
-  </si>
-  <si>
-    <t>HDENLA</t>
-  </si>
-  <si>
-    <t>WFRX</t>
+    <t>LITTLETON</t>
+  </si>
+  <si>
+    <t>Junction Received</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -134,34 +125,31 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/17/2023 09:34:49 EDT, by WPJTOWN1.The search returned: 8 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:53:58 EDT, by WPJTOWN1.The search returned: 7 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>CRDX15776</t>
-  </si>
-  <si>
-    <t>CGAX10266</t>
-  </si>
-  <si>
-    <t>CGOX1030</t>
-  </si>
-  <si>
-    <t>MWCX463796</t>
-  </si>
-  <si>
-    <t>CRDX15000</t>
-  </si>
-  <si>
-    <t>HRTX541008</t>
-  </si>
-  <si>
-    <t>CGAX10146</t>
-  </si>
-  <si>
-    <t>WFRX454013</t>
+    <t>BN471547</t>
+  </si>
+  <si>
+    <t>CRDX15008</t>
+  </si>
+  <si>
+    <t>BNSF468933</t>
+  </si>
+  <si>
+    <t>CRDX15003</t>
+  </si>
+  <si>
+    <t>HRTX541059</t>
+  </si>
+  <si>
+    <t>CRDX15803</t>
+  </si>
+  <si>
+    <t>HRTX541048</t>
   </si>
 </sst>
 </file>
@@ -1002,17 +990,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O10"/>
+      <selection activeCell="O3" sqref="O3:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1050,16 +1038,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1067,379 +1055,298 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>15776</v>
+        <v>471547</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>2233</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3">
-        <v>284000</v>
-      </c>
-      <c r="M3">
-        <v>66800</v>
-      </c>
-      <c r="N3">
-        <v>217200</v>
+      <c r="L3" t="s">
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>15008</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>303</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>10266</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>2233</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
       <c r="L4">
-        <v>197358</v>
+        <v>286650</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="N4">
-        <v>197358</v>
+        <v>217950</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>468933</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>702</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>1030</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>2233</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
       <c r="L5">
-        <v>237690</v>
+        <v>234960</v>
       </c>
       <c r="M5">
-        <v>62300</v>
+        <v>63600</v>
       </c>
       <c r="N5">
-        <v>175390</v>
+        <v>171360</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>463796</v>
+        <v>15003</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>2129</v>
+        <v>1304</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6">
-        <v>238820</v>
+        <v>286450</v>
       </c>
       <c r="M6">
-        <v>63900</v>
+        <v>68400</v>
       </c>
       <c r="N6">
-        <v>174920</v>
+        <v>218050</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>15000</v>
+        <v>541059</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="G7">
-        <v>951</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7">
-        <v>281850</v>
+        <v>261250</v>
       </c>
       <c r="M7">
-        <v>68300</v>
+        <v>64200</v>
       </c>
       <c r="N7">
-        <v>213550</v>
+        <v>197050</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>541008</v>
+        <v>15803</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>1045</v>
+      </c>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>1453</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8">
-        <v>267000</v>
+        <v>284700</v>
       </c>
       <c r="M8">
-        <v>64200</v>
+        <v>66900</v>
       </c>
       <c r="N8">
-        <v>202800</v>
+        <v>217800</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>10146</v>
+        <v>541048</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>1045</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>1453</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9">
-        <v>260660</v>
+        <v>202800</v>
       </c>
       <c r="M9">
-        <v>63300</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>197360</v>
+        <v>202800</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>454013</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>1453</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10">
-        <v>261860</v>
-      </c>
-      <c r="M10">
-        <v>63900</v>
-      </c>
-      <c r="N10">
-        <v>197960</v>
-      </c>
-      <c r="O10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>